--- a/Search_Hyperparameters_Results.xlsx
+++ b/Search_Hyperparameters_Results.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sqj52\Desktop\CVPR2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sqj52\Desktop\CVPR2020\rethinking_performance_estimation_in_NAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA98A06D-37EE-4460-BC04-9ACF1C4E57E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5D7C48-7EBC-4FEF-AD3D-1F2C73E53FA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{40EEDE17-48B8-4CF6-900E-5D1EFEE6D8DB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ground_truth" sheetId="2" r:id="rId1"/>
+    <sheet name="Hyperparameters Search" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
   <si>
     <t>epoch</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -476,15 +477,629 @@
   </si>
   <si>
     <t>arch_100</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('avg_pool_3x3', 0), ('dil_conv_5x5', 1)], [('max_pool_3x3', 0), ('avg_pool_3x3', 1)], [('max_pool_3x3', 0), ('avg_pool_3x3', 3)], [('sep_conv_5x5', 0), ('dil_conv_3x3', 1)]], normal_concat=range(2, 6), reduce=[[('dil_conv_5x5', 1), ('dil_conv_3x3', 0)], [('dil_conv_3x3', 2), ('max_pool_3x3', 0)], [('dil_conv_3x3', 3), ('sep_conv_3x3', 2)], [('dil_conv_3x3', 3), ('dil_conv_5x5', 1)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('sep_conv_5x5', 1), ('dil_conv_5x5', 0)], [('dil_conv_5x5', 2), ('skip_connect', 0)], [('sep_conv_5x5', 2), ('max_pool_3x3', 3)], [('sep_conv_3x3', 0), ('sep_conv_3x3', 1)]], normal_concat=range(2, 6), reduce=[[('skip_connect', 0), ('avg_pool_3x3', 1)], [('skip_connect', 0), ('sep_conv_5x5', 2)], [('max_pool_3x3', 0), ('skip_connect', 3)], [('max_pool_3x3', 2), ('sep_conv_5x5', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('sep_conv_5x5', 0), ('sep_conv_5x5', 1)], [('avg_pool_3x3', 0), ('skip_connect', 1)], [('skip_connect', 1), ('avg_pool_3x3', 2)], [('dil_conv_5x5', 0), ('dil_conv_5x5', 1)]], normal_concat=range(2, 6), reduce=[[('dil_conv_3x3', 1), ('dil_conv_3x3', 0)], [('avg_pool_3x3', 1), ('sep_conv_5x5', 0)], [('dil_conv_3x3', 3), ('dil_conv_3x3', 2)], [('max_pool_3x3', 4), ('dil_conv_3x3', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('max_pool_3x3', 1), ('skip_connect', 0)], [('sep_conv_5x5', 1), ('avg_pool_3x3', 2)], [('sep_conv_5x5', 2), ('sep_conv_5x5', 0)], [('max_pool_3x3', 0), ('dil_conv_5x5', 4)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 1), ('skip_connect', 0)], [('dil_conv_3x3', 1), ('skip_connect', 0)], [('max_pool_3x3', 2), ('dil_conv_5x5', 3)], [('sep_conv_3x3', 1), ('dil_conv_5x5', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('max_pool_3x3', 1), ('dil_conv_5x5', 0)], [('dil_conv_3x3', 0), ('sep_conv_5x5', 1)], [('max_pool_3x3', 2), ('max_pool_3x3', 0)], [('sep_conv_5x5', 0), ('max_pool_3x3', 1)]], normal_concat=range(2, 6), reduce=[[('sep_conv_3x3', 1), ('sep_conv_5x5', 0)], [('max_pool_3x3', 0), ('avg_pool_3x3', 2)], [('max_pool_3x3', 1), ('max_pool_3x3', 3)], [('sep_conv_3x3', 2), ('avg_pool_3x3', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_5x5', 1), ('max_pool_3x3', 0)], [('sep_conv_5x5', 2), ('dil_conv_3x3', 1)], [('dil_conv_3x3', 0), ('skip_connect', 3)], [('skip_connect', 3), ('dil_conv_3x3', 1)]], normal_concat=range(2, 6), reduce=[[('avg_pool_3x3', 1), ('max_pool_3x3', 0)], [('dil_conv_3x3', 2), ('dil_conv_5x5', 1)], [('skip_connect', 1), ('sep_conv_3x3', 2)], [('dil_conv_5x5', 2), ('dil_conv_5x5', 1)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('skip_connect', 0), ('max_pool_3x3', 1)], [('sep_conv_3x3', 2), ('max_pool_3x3', 0)], [('avg_pool_3x3', 2), ('sep_conv_5x5', 3)], [('max_pool_3x3', 1), ('dil_conv_5x5', 4)]], normal_concat=range(2, 6), reduce=[[('skip_connect', 1), ('skip_connect', 0)], [('dil_conv_3x3', 1), ('avg_pool_3x3', 0)], [('max_pool_3x3', 0), ('max_pool_3x3', 3)], [('dil_conv_5x5', 4), ('dil_conv_3x3', 2)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('sep_conv_3x3', 0), ('sep_conv_3x3', 1)], [('sep_conv_5x5', 0), ('sep_conv_3x3', 2)], [('avg_pool_3x3', 3), ('sep_conv_3x3', 0)], [('dil_conv_3x3', 0), ('skip_connect', 2)]], normal_concat=range(2, 6), reduce=[[('skip_connect', 0), ('dil_conv_5x5', 1)], [('avg_pool_3x3', 0), ('sep_conv_5x5', 2)], [('sep_conv_3x3', 3), ('skip_connect', 0)], [('sep_conv_3x3', 4), ('sep_conv_3x3', 2)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('sep_conv_3x3', 1), ('skip_connect', 0)], [('dil_conv_3x3', 1), ('dil_conv_5x5', 0)], [('sep_conv_3x3', 3), ('sep_conv_3x3', 1)], [('sep_conv_5x5', 1), ('avg_pool_3x3', 2)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 0), ('dil_conv_5x5', 1)], [('sep_conv_5x5', 2), ('dil_conv_5x5', 0)], [('avg_pool_3x3', 3), ('skip_connect', 2)], [('sep_conv_5x5', 0), ('sep_conv_5x5', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('skip_connect', 0), ('max_pool_3x3', 1)], [('dil_conv_3x3', 1), ('max_pool_3x3', 2)], [('max_pool_3x3', 3), ('avg_pool_3x3', 2)], [('sep_conv_3x3', 3), ('avg_pool_3x3', 4)]], normal_concat=range(2, 6), reduce=[[('avg_pool_3x3', 1), ('dil_conv_3x3', 0)], [('sep_conv_3x3', 0), ('skip_connect', 2)], [('dil_conv_5x5', 3), ('dil_conv_5x5', 0)], [('dil_conv_3x3', 3), ('dil_conv_3x3', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('skip_connect', 1), ('dil_conv_5x5', 0)], [('max_pool_3x3', 1), ('sep_conv_3x3', 2)], [('dil_conv_3x3', 3), ('sep_conv_3x3', 1)], [('avg_pool_3x3', 2), ('avg_pool_3x3', 4)]], normal_concat=range(2, 6), reduce=[[('dil_conv_3x3', 0), ('dil_conv_5x5', 1)], [('dil_conv_5x5', 2), ('sep_conv_5x5', 1)], [('max_pool_3x3', 1), ('sep_conv_3x3', 2)], [('max_pool_3x3', 2), ('dil_conv_5x5', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('sep_conv_5x5', 1), ('dil_conv_5x5', 0)], [('max_pool_3x3', 0), ('dil_conv_3x3', 2)], [('max_pool_3x3', 2), ('max_pool_3x3', 0)], [('sep_conv_3x3', 4), ('sep_conv_5x5', 1)]], normal_concat=range(2, 6), reduce=[[('sep_conv_5x5', 1), ('max_pool_3x3', 0)], [('avg_pool_3x3', 2), ('avg_pool_3x3', 1)], [('avg_pool_3x3', 0), ('skip_connect', 1)], [('max_pool_3x3', 0), ('skip_connect', 1)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_5x5', 0), ('dil_conv_5x5', 1)], [('sep_conv_5x5', 1), ('sep_conv_5x5', 2)], [('avg_pool_3x3', 1), ('max_pool_3x3', 3)], [('sep_conv_5x5', 4), ('skip_connect', 2)]], normal_concat=range(2, 6), reduce=[[('avg_pool_3x3', 0), ('avg_pool_3x3', 1)], [('sep_conv_5x5', 1), ('dil_conv_5x5', 0)], [('dil_conv_5x5', 1), ('sep_conv_3x3', 3)], [('avg_pool_3x3', 1), ('avg_pool_3x3', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_3x3', 0), ('sep_conv_5x5', 1)], [('dil_conv_3x3', 1), ('max_pool_3x3', 0)], [('max_pool_3x3', 3), ('max_pool_3x3', 1)], [('dil_conv_3x3', 4), ('sep_conv_3x3', 0)]], normal_concat=range(2, 6), reduce=[[('dil_conv_5x5', 1), ('avg_pool_3x3', 0)], [('dil_conv_3x3', 0), ('sep_conv_5x5', 1)], [('sep_conv_5x5', 0), ('skip_connect', 2)], [('max_pool_3x3', 4), ('dil_conv_5x5', 1)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('sep_conv_5x5', 0), ('max_pool_3x3', 1)], [('max_pool_3x3', 1), ('skip_connect', 0)], [('sep_conv_3x3', 2), ('dil_conv_5x5', 0)], [('skip_connect', 4), ('skip_connect', 1)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 0), ('skip_connect', 1)], [('sep_conv_5x5', 1), ('dil_conv_5x5', 2)], [('dil_conv_5x5', 2), ('max_pool_3x3', 3)], [('dil_conv_3x3', 1), ('dil_conv_3x3', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_5x5', 0), ('dil_conv_3x3', 1)], [('sep_conv_3x3', 0), ('max_pool_3x3', 2)], [('sep_conv_5x5', 3), ('dil_conv_3x3', 2)], [('skip_connect', 4), ('skip_connect', 0)]], normal_concat=range(2, 6), reduce=[[('skip_connect', 1), ('max_pool_3x3', 0)], [('skip_connect', 1), ('max_pool_3x3', 2)], [('avg_pool_3x3', 1), ('avg_pool_3x3', 2)], [('dil_conv_3x3', 3), ('max_pool_3x3', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_3x3', 1), ('max_pool_3x3', 0)], [('sep_conv_3x3', 0), ('dil_conv_3x3', 2)], [('sep_conv_3x3', 2), ('skip_connect', 1)], [('dil_conv_3x3', 3), ('sep_conv_3x3', 2)]], normal_concat=range(2, 6), reduce=[[('sep_conv_5x5', 0), ('sep_conv_5x5', 1)], [('dil_conv_5x5', 2), ('dil_conv_3x3', 0)], [('dil_conv_5x5', 2), ('sep_conv_3x3', 1)], [('dil_conv_3x3', 0), ('dil_conv_5x5', 2)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('skip_connect', 0), ('dil_conv_3x3', 1)], [('skip_connect', 2), ('dil_conv_3x3', 1)], [('avg_pool_3x3', 1), ('max_pool_3x3', 0)], [('avg_pool_3x3', 1), ('dil_conv_3x3', 4)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 0), ('max_pool_3x3', 1)], [('sep_conv_5x5', 0), ('avg_pool_3x3', 1)], [('sep_conv_5x5', 1), ('max_pool_3x3', 3)], [('dil_conv_5x5', 0), ('skip_connect', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('avg_pool_3x3', 1), ('avg_pool_3x3', 0)], [('sep_conv_3x3', 2), ('skip_connect', 1)], [('dil_conv_5x5', 0), ('sep_conv_5x5', 2)], [('max_pool_3x3', 4), ('sep_conv_5x5', 0)]], normal_concat=range(2, 6), reduce=[[('dil_conv_3x3', 0), ('max_pool_3x3', 1)], [('sep_conv_3x3', 0), ('skip_connect', 1)], [('dil_conv_3x3', 1), ('sep_conv_3x3', 3)], [('dil_conv_3x3', 2), ('skip_connect', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_5x5', 0), ('skip_connect', 1)], [('sep_conv_5x5', 2), ('sep_conv_5x5', 1)], [('dil_conv_3x3', 3), ('dil_conv_5x5', 0)], [('avg_pool_3x3', 0), ('skip_connect', 2)]], normal_concat=range(2, 6), reduce=[[('skip_connect', 1), ('max_pool_3x3', 0)], [('skip_connect', 1), ('skip_connect', 2)], [('dil_conv_3x3', 2), ('sep_conv_5x5', 0)], [('skip_connect', 0), ('sep_conv_5x5', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('skip_connect', 0), ('dil_conv_5x5', 1)], [('sep_conv_5x5', 1), ('dil_conv_3x3', 2)], [('dil_conv_5x5', 1), ('sep_conv_3x3', 0)], [('dil_conv_5x5', 0), ('skip_connect', 3)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 1), ('avg_pool_3x3', 0)], [('avg_pool_3x3', 2), ('avg_pool_3x3', 0)], [('sep_conv_3x3', 2), ('dil_conv_3x3', 3)], [('dil_conv_3x3', 2), ('dil_conv_3x3', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_3x3', 1), ('avg_pool_3x3', 0)], [('dil_conv_5x5', 2), ('dil_conv_5x5', 1)], [('dil_conv_3x3', 3), ('max_pool_3x3', 1)], [('sep_conv_5x5', 0), ('dil_conv_5x5', 1)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 1), ('max_pool_3x3', 0)], [('dil_conv_5x5', 2), ('dil_conv_3x3', 0)], [('sep_conv_5x5', 3), ('dil_conv_3x3', 2)], [('skip_connect', 4), ('max_pool_3x3', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('avg_pool_3x3', 0), ('skip_connect', 1)], [('sep_conv_5x5', 0), ('dil_conv_5x5', 2)], [('dil_conv_3x3', 1), ('sep_conv_5x5', 0)], [('max_pool_3x3', 1), ('skip_connect', 2)]], normal_concat=range(2, 6), reduce=[[('sep_conv_5x5', 1), ('dil_conv_5x5', 0)], [('max_pool_3x3', 2), ('max_pool_3x3', 0)], [('dil_conv_5x5', 3), ('avg_pool_3x3', 0)], [('max_pool_3x3', 2), ('dil_conv_5x5', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('max_pool_3x3', 1), ('sep_conv_5x5', 0)], [('dil_conv_5x5', 0), ('sep_conv_3x3', 2)], [('sep_conv_3x3', 1), ('dil_conv_5x5', 2)], [('max_pool_3x3', 4), ('max_pool_3x3', 3)]], normal_concat=range(2, 6), reduce=[[('sep_conv_5x5', 0), ('skip_connect', 1)], [('sep_conv_5x5', 0), ('avg_pool_3x3', 1)], [('dil_conv_5x5', 1), ('skip_connect', 2)], [('avg_pool_3x3', 0), ('max_pool_3x3', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('avg_pool_3x3', 1), ('dil_conv_3x3', 0)], [('sep_conv_3x3', 1), ('sep_conv_3x3', 2)], [('max_pool_3x3', 3), ('sep_conv_3x3', 0)], [('dil_conv_5x5', 2), ('dil_conv_3x3', 3)]], normal_concat=range(2, 6), reduce=[[('avg_pool_3x3', 1), ('sep_conv_5x5', 0)], [('dil_conv_3x3', 2), ('max_pool_3x3', 1)], [('sep_conv_3x3', 1), ('sep_conv_3x3', 3)], [('sep_conv_5x5', 3), ('dil_conv_3x3', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_5x5', 0), ('sep_conv_3x3', 1)], [('avg_pool_3x3', 2), ('sep_conv_3x3', 0)], [('max_pool_3x3', 3), ('max_pool_3x3', 1)], [('max_pool_3x3', 3), ('dil_conv_5x5', 2)]], normal_concat=range(2, 6), reduce=[[('avg_pool_3x3', 0), ('dil_conv_3x3', 1)], [('sep_conv_3x3', 2), ('dil_conv_3x3', 0)], [('dil_conv_3x3', 0), ('sep_conv_5x5', 3)], [('max_pool_3x3', 1), ('skip_connect', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_3x3', 1), ('avg_pool_3x3', 0)], [('dil_conv_3x3', 1), ('skip_connect', 0)], [('avg_pool_3x3', 0), ('dil_conv_5x5', 1)], [('skip_connect', 2), ('dil_conv_3x3', 0)]], normal_concat=range(2, 6), reduce=[[('dil_conv_3x3', 1), ('avg_pool_3x3', 0)], [('sep_conv_3x3', 0), ('avg_pool_3x3', 2)], [('sep_conv_3x3', 3), ('avg_pool_3x3', 2)], [('avg_pool_3x3', 3), ('dil_conv_5x5', 0)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_5x5', 1), ('avg_pool_3x3', 0)], [('sep_conv_3x3', 1), ('avg_pool_3x3', 0)], [('dil_conv_3x3', 2), ('max_pool_3x3', 1)], [('max_pool_3x3', 0), ('sep_conv_5x5', 4)]], normal_concat=range(2, 6), reduce=[[('dil_conv_3x3', 1), ('sep_conv_3x3', 0)], [('sep_conv_5x5', 2), ('dil_conv_5x5', 1)], [('sep_conv_3x3', 0), ('dil_conv_5x5', 3)], [('dil_conv_5x5', 3), ('sep_conv_3x3', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_3x3', 1), ('dil_conv_3x3', 0)], [('sep_conv_3x3', 2), ('sep_conv_3x3', 0)], [('dil_conv_3x3', 0), ('dil_conv_5x5', 3)], [('dil_conv_3x3', 2), ('max_pool_3x3', 1)]], normal_concat=range(2, 6), reduce=[[('dil_conv_3x3', 1), ('avg_pool_3x3', 0)], [('dil_conv_5x5', 0), ('avg_pool_3x3', 2)], [('dil_conv_5x5', 3), ('dil_conv_3x3', 2)], [('avg_pool_3x3', 0), ('sep_conv_5x5', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_3x3', 0), ('skip_connect', 1)], [('avg_pool_3x3', 1), ('sep_conv_5x5', 0)], [('sep_conv_3x3', 2), ('max_pool_3x3', 3)], [('avg_pool_3x3', 0), ('dil_conv_3x3', 2)]], normal_concat=range(2, 6), reduce=[[('avg_pool_3x3', 0), ('sep_conv_3x3', 1)], [('max_pool_3x3', 2), ('max_pool_3x3', 1)], [('skip_connect', 1), ('max_pool_3x3', 0)], [('dil_conv_3x3', 2), ('skip_connect', 0)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('skip_connect', 0), ('max_pool_3x3', 1)], [('dil_conv_3x3', 2), ('sep_conv_5x5', 1)], [('dil_conv_5x5', 1), ('avg_pool_3x3', 3)], [('dil_conv_5x5', 2), ('sep_conv_3x3', 3)]], normal_concat=range(2, 6), reduce=[[('dil_conv_5x5', 1), ('dil_conv_5x5', 0)], [('skip_connect', 2), ('avg_pool_3x3', 0)], [('skip_connect', 2), ('dil_conv_5x5', 0)], [('dil_conv_3x3', 1), ('dil_conv_5x5', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_5x5', 1), ('max_pool_3x3', 0)], [('avg_pool_3x3', 1), ('dil_conv_3x3', 2)], [('dil_conv_3x3', 2), ('skip_connect', 3)], [('sep_conv_3x3', 4), ('sep_conv_3x3', 1)]], normal_concat=range(2, 6), reduce=[[('dil_conv_5x5', 0), ('sep_conv_3x3', 1)], [('dil_conv_3x3', 0), ('avg_pool_3x3', 2)], [('dil_conv_5x5', 2), ('dil_conv_5x5', 0)], [('sep_conv_3x3', 3), ('skip_connect', 0)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('sep_conv_5x5', 1), ('dil_conv_5x5', 0)], [('dil_conv_3x3', 1), ('dil_conv_5x5', 2)], [('sep_conv_3x3', 0), ('max_pool_3x3', 2)], [('sep_conv_3x3', 4), ('sep_conv_5x5', 0)]], normal_concat=range(2, 6), reduce=[[('dil_conv_5x5', 0), ('skip_connect', 1)], [('dil_conv_3x3', 2), ('avg_pool_3x3', 0)], [('avg_pool_3x3', 3), ('max_pool_3x3', 0)], [('sep_conv_5x5', 0), ('dil_conv_3x3', 1)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('skip_connect', 0), ('sep_conv_5x5', 1)], [('sep_conv_3x3', 2), ('sep_conv_5x5', 1)], [('dil_conv_5x5', 2), ('skip_connect', 1)], [('sep_conv_3x3', 4), ('dil_conv_5x5', 1)]], normal_concat=range(2, 6), reduce=[[('avg_pool_3x3', 1), ('sep_conv_3x3', 0)], [('sep_conv_5x5', 0), ('skip_connect', 1)], [('dil_conv_3x3', 2), ('dil_conv_3x3', 3)], [('sep_conv_3x3', 4), ('sep_conv_5x5', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('sep_conv_5x5', 1), ('sep_conv_3x3', 0)], [('sep_conv_5x5', 0), ('avg_pool_3x3', 2)], [('dil_conv_3x3', 1), ('avg_pool_3x3', 0)], [('max_pool_3x3', 2), ('max_pool_3x3', 3)]], normal_concat=range(2, 6), reduce=[[('dil_conv_3x3', 1), ('skip_connect', 0)], [('max_pool_3x3', 2), ('sep_conv_3x3', 0)], [('dil_conv_5x5', 3), ('max_pool_3x3', 1)], [('max_pool_3x3', 4), ('dil_conv_3x3', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('sep_conv_3x3', 0), ('sep_conv_3x3', 1)], [('max_pool_3x3', 0), ('avg_pool_3x3', 2)], [('dil_conv_3x3', 2), ('dil_conv_3x3', 3)], [('dil_conv_3x3', 2), ('sep_conv_3x3', 1)]], normal_concat=range(2, 6), reduce=[[('skip_connect', 1), ('avg_pool_3x3', 0)], [('max_pool_3x3', 2), ('sep_conv_3x3', 0)], [('max_pool_3x3', 3), ('skip_connect', 1)], [('sep_conv_3x3', 0), ('dil_conv_3x3', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('sep_conv_5x5', 0), ('sep_conv_3x3', 1)], [('sep_conv_5x5', 2), ('dil_conv_5x5', 1)], [('dil_conv_3x3', 1), ('skip_connect', 2)], [('max_pool_3x3', 2), ('avg_pool_3x3', 4)]], normal_concat=range(2, 6), reduce=[[('avg_pool_3x3', 1), ('sep_conv_3x3', 0)], [('max_pool_3x3', 2), ('sep_conv_5x5', 0)], [('dil_conv_5x5', 1), ('skip_connect', 2)], [('max_pool_3x3', 0), ('skip_connect', 2)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('sep_conv_3x3', 1), ('max_pool_3x3', 0)], [('sep_conv_3x3', 0), ('max_pool_3x3', 2)], [('max_pool_3x3', 2), ('avg_pool_3x3', 3)], [('dil_conv_5x5', 4), ('avg_pool_3x3', 1)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 0), ('avg_pool_3x3', 1)], [('sep_conv_5x5', 1), ('skip_connect', 0)], [('sep_conv_5x5', 0), ('dil_conv_5x5', 1)], [('dil_conv_3x3', 2), ('dil_conv_3x3', 0)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('max_pool_3x3', 1), ('skip_connect', 0)], [('sep_conv_3x3', 0), ('skip_connect', 1)], [('skip_connect', 3), ('max_pool_3x3', 0)], [('avg_pool_3x3', 3), ('max_pool_3x3', 0)]], normal_concat=range(2, 6), reduce=[[('avg_pool_3x3', 0), ('dil_conv_5x5', 1)], [('skip_connect', 0), ('sep_conv_5x5', 2)], [('dil_conv_5x5', 2), ('skip_connect', 3)], [('sep_conv_5x5', 3), ('avg_pool_3x3', 2)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('sep_conv_3x3', 1), ('dil_conv_3x3', 0)], [('dil_conv_3x3', 1), ('dil_conv_5x5', 2)], [('sep_conv_5x5', 0), ('max_pool_3x3', 2)], [('sep_conv_5x5', 0), ('dil_conv_5x5', 4)]], normal_concat=range(2, 6), reduce=[[('dil_conv_5x5', 1), ('sep_conv_3x3', 0)], [('avg_pool_3x3', 1), ('skip_connect', 2)], [('dil_conv_5x5', 1), ('dil_conv_3x3', 2)], [('dil_conv_3x3', 1), ('sep_conv_5x5', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('sep_conv_3x3', 0), ('skip_connect', 1)], [('dil_conv_3x3', 0), ('sep_conv_3x3', 1)], [('sep_conv_5x5', 0), ('avg_pool_3x3', 2)], [('dil_conv_5x5', 4), ('avg_pool_3x3', 2)]], normal_concat=range(2, 6), reduce=[[('dil_conv_3x3', 0), ('avg_pool_3x3', 1)], [('skip_connect', 1), ('sep_conv_3x3', 0)], [('sep_conv_3x3', 3), ('avg_pool_3x3', 2)], [('skip_connect', 3), ('sep_conv_5x5', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('sep_conv_5x5', 0), ('skip_connect', 1)], [('dil_conv_3x3', 0), ('max_pool_3x3', 2)], [('dil_conv_3x3', 0), ('sep_conv_3x3', 3)], [('dil_conv_5x5', 2), ('sep_conv_5x5', 3)]], normal_concat=range(2, 6), reduce=[[('avg_pool_3x3', 1), ('sep_conv_5x5', 0)], [('max_pool_3x3', 2), ('sep_conv_3x3', 1)], [('sep_conv_3x3', 2), ('dil_conv_5x5', 3)], [('dil_conv_3x3', 1), ('max_pool_3x3', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('skip_connect', 1), ('max_pool_3x3', 0)], [('avg_pool_3x3', 2), ('avg_pool_3x3', 0)], [('max_pool_3x3', 2), ('sep_conv_5x5', 0)], [('dil_conv_5x5', 0), ('sep_conv_5x5', 3)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 1), ('dil_conv_5x5', 0)], [('dil_conv_5x5', 0), ('dil_conv_3x3', 2)], [('sep_conv_5x5', 0), ('sep_conv_5x5', 2)], [('sep_conv_3x3', 0), ('max_pool_3x3', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('max_pool_3x3', 0), ('avg_pool_3x3', 1)], [('sep_conv_5x5', 0), ('sep_conv_5x5', 1)], [('dil_conv_3x3', 2), ('avg_pool_3x3', 0)], [('avg_pool_3x3', 1), ('dil_conv_5x5', 3)]], normal_concat=range(2, 6), reduce=[[('skip_connect', 1), ('sep_conv_5x5', 0)], [('dil_conv_3x3', 0), ('sep_conv_5x5', 2)], [('sep_conv_3x3', 0), ('sep_conv_3x3', 1)], [('avg_pool_3x3', 3), ('sep_conv_5x5', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_3x3', 0), ('sep_conv_3x3', 1)], [('avg_pool_3x3', 2), ('avg_pool_3x3', 1)], [('avg_pool_3x3', 2), ('dil_conv_5x5', 3)], [('sep_conv_5x5', 1), ('max_pool_3x3', 2)]], normal_concat=range(2, 6), reduce=[[('dil_conv_5x5', 1), ('dil_conv_5x5', 0)], [('sep_conv_3x3', 0), ('avg_pool_3x3', 2)], [('dil_conv_3x3', 1), ('dil_conv_3x3', 2)], [('skip_connect', 3), ('sep_conv_5x5', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('skip_connect', 0), ('max_pool_3x3', 1)], [('skip_connect', 0), ('sep_conv_5x5', 2)], [('skip_connect', 1), ('avg_pool_3x3', 2)], [('dil_conv_3x3', 4), ('max_pool_3x3', 1)]], normal_concat=range(2, 6), reduce=[[('dil_conv_3x3', 0), ('sep_conv_3x3', 1)], [('avg_pool_3x3', 1), ('sep_conv_3x3', 2)], [('avg_pool_3x3', 2), ('skip_connect', 0)], [('dil_conv_3x3', 1), ('dil_conv_5x5', 0)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_5x5', 0), ('avg_pool_3x3', 1)], [('dil_conv_5x5', 2), ('sep_conv_5x5', 0)], [('sep_conv_3x3', 3), ('skip_connect', 0)], [('skip_connect', 1), ('max_pool_3x3', 4)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 1), ('dil_conv_3x3', 0)], [('avg_pool_3x3', 2), ('max_pool_3x3', 1)], [('dil_conv_5x5', 0), ('sep_conv_3x3', 2)], [('dil_conv_3x3', 2), ('dil_conv_5x5', 0)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('max_pool_3x3', 1), ('sep_conv_3x3', 0)], [('sep_conv_3x3', 0), ('sep_conv_3x3', 2)], [('avg_pool_3x3', 2), ('dil_conv_5x5', 1)], [('dil_conv_3x3', 1), ('dil_conv_5x5', 2)]], normal_concat=range(2, 6), reduce=[[('skip_connect', 0), ('sep_conv_3x3', 1)], [('dil_conv_5x5', 1), ('skip_connect', 0)], [('skip_connect', 3), ('skip_connect', 0)], [('avg_pool_3x3', 3), ('avg_pool_3x3', 2)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('max_pool_3x3', 0), ('sep_conv_3x3', 1)], [('dil_conv_5x5', 1), ('max_pool_3x3', 2)], [('sep_conv_5x5', 0), ('dil_conv_5x5', 2)], [('max_pool_3x3', 0), ('max_pool_3x3', 2)]], normal_concat=range(2, 6), reduce=[[('dil_conv_5x5', 0), ('max_pool_3x3', 1)], [('sep_conv_3x3', 2), ('dil_conv_3x3', 0)], [('dil_conv_3x3', 3), ('avg_pool_3x3', 0)], [('avg_pool_3x3', 0), ('dil_conv_5x5', 1)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_5x5', 1), ('max_pool_3x3', 0)], [('dil_conv_5x5', 0), ('sep_conv_3x3', 2)], [('avg_pool_3x3', 3), ('sep_conv_5x5', 2)], [('sep_conv_3x3', 0), ('skip_connect', 1)]], normal_concat=range(2, 6), reduce=[[('sep_conv_5x5', 1), ('skip_connect', 0)], [('sep_conv_3x3', 1), ('avg_pool_3x3', 2)], [('sep_conv_5x5', 2), ('sep_conv_3x3', 3)], [('sep_conv_5x5', 0), ('skip_connect', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('skip_connect', 0), ('avg_pool_3x3', 1)], [('dil_conv_5x5', 0), ('dil_conv_5x5', 2)], [('max_pool_3x3', 2), ('skip_connect', 3)], [('skip_connect', 0), ('dil_conv_3x3', 4)]], normal_concat=range(2, 6), reduce=[[('avg_pool_3x3', 1), ('sep_conv_3x3', 0)], [('dil_conv_5x5', 2), ('skip_connect', 0)], [('dil_conv_5x5', 0), ('max_pool_3x3', 3)], [('sep_conv_3x3', 0), ('max_pool_3x3', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('avg_pool_3x3', 1), ('max_pool_3x3', 0)], [('max_pool_3x3', 0), ('skip_connect', 1)], [('sep_conv_5x5', 0), ('max_pool_3x3', 3)], [('sep_conv_3x3', 0), ('skip_connect', 4)]], normal_concat=range(2, 6), reduce=[[('sep_conv_5x5', 1), ('dil_conv_3x3', 0)], [('dil_conv_3x3', 1), ('avg_pool_3x3', 0)], [('sep_conv_5x5', 2), ('avg_pool_3x3', 0)], [('sep_conv_5x5', 4), ('skip_connect', 1)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_5x5', 1), ('dil_conv_3x3', 0)], [('avg_pool_3x3', 2), ('dil_conv_3x3', 0)], [('sep_conv_5x5', 1), ('skip_connect', 3)], [('sep_conv_5x5', 2), ('dil_conv_5x5', 3)]], normal_concat=range(2, 6), reduce=[[('dil_conv_3x3', 1), ('dil_conv_3x3', 0)], [('dil_conv_3x3', 1), ('sep_conv_3x3', 0)], [('skip_connect', 2), ('sep_conv_3x3', 3)], [('skip_connect', 4), ('dil_conv_3x3', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('sep_conv_5x5', 0), ('dil_conv_3x3', 1)], [('dil_conv_5x5', 2), ('max_pool_3x3', 0)], [('avg_pool_3x3', 1), ('skip_connect', 0)], [('skip_connect', 0), ('max_pool_3x3', 1)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 0), ('sep_conv_5x5', 1)], [('dil_conv_5x5', 0), ('dil_conv_3x3', 2)], [('max_pool_3x3', 1), ('sep_conv_3x3', 3)], [('sep_conv_5x5', 1), ('sep_conv_5x5', 0)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('skip_connect', 1), ('sep_conv_3x3', 0)], [('sep_conv_3x3', 1), ('max_pool_3x3', 0)], [('avg_pool_3x3', 0), ('dil_conv_3x3', 3)], [('avg_pool_3x3', 1), ('sep_conv_5x5', 4)]], normal_concat=range(2, 6), reduce=[[('dil_conv_3x3', 1), ('dil_conv_5x5', 0)], [('max_pool_3x3', 0), ('sep_conv_3x3', 2)], [('avg_pool_3x3', 2), ('sep_conv_3x3', 0)], [('skip_connect', 1), ('sep_conv_5x5', 2)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('skip_connect', 1), ('sep_conv_3x3', 0)], [('dil_conv_3x3', 0), ('sep_conv_5x5', 1)], [('dil_conv_5x5', 2), ('max_pool_3x3', 3)], [('dil_conv_3x3', 0), ('skip_connect', 3)]], normal_concat=range(2, 6), reduce=[[('skip_connect', 1), ('skip_connect', 0)], [('skip_connect', 1), ('skip_connect', 2)], [('max_pool_3x3', 0), ('avg_pool_3x3', 2)], [('skip_connect', 0), ('max_pool_3x3', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('skip_connect', 1), ('dil_conv_5x5', 0)], [('dil_conv_3x3', 2), ('max_pool_3x3', 1)], [('sep_conv_5x5', 1), ('sep_conv_5x5', 0)], [('sep_conv_3x3', 4), ('dil_conv_3x3', 1)]], normal_concat=range(2, 6), reduce=[[('dil_conv_3x3', 1), ('skip_connect', 0)], [('max_pool_3x3', 1), ('dil_conv_3x3', 2)], [('skip_connect', 2), ('sep_conv_3x3', 0)], [('max_pool_3x3', 2), ('sep_conv_5x5', 0)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('sep_conv_5x5', 0), ('sep_conv_3x3', 1)], [('avg_pool_3x3', 0), ('max_pool_3x3', 2)], [('dil_conv_3x3', 3), ('dil_conv_5x5', 2)], [('dil_conv_5x5', 4), ('sep_conv_5x5', 0)]], normal_concat=range(2, 6), reduce=[[('sep_conv_3x3', 1), ('dil_conv_5x5', 0)], [('skip_connect', 1), ('sep_conv_5x5', 2)], [('skip_connect', 2), ('dil_conv_3x3', 3)], [('dil_conv_5x5', 2), ('dil_conv_3x3', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('max_pool_3x3', 0), ('avg_pool_3x3', 1)], [('sep_conv_5x5', 1), ('skip_connect', 0)], [('sep_conv_3x3', 3), ('avg_pool_3x3', 1)], [('sep_conv_5x5', 3), ('sep_conv_3x3', 4)]], normal_concat=range(2, 6), reduce=[[('dil_conv_3x3', 0), ('sep_conv_3x3', 1)], [('dil_conv_5x5', 0), ('skip_connect', 2)], [('sep_conv_3x3', 1), ('max_pool_3x3', 0)], [('max_pool_3x3', 1), ('max_pool_3x3', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('sep_conv_5x5', 1), ('skip_connect', 0)], [('dil_conv_5x5', 1), ('sep_conv_3x3', 0)], [('avg_pool_3x3', 2), ('dil_conv_3x3', 0)], [('avg_pool_3x3', 3), ('avg_pool_3x3', 2)]], normal_concat=range(2, 6), reduce=[[('sep_conv_3x3', 1), ('max_pool_3x3', 0)], [('sep_conv_5x5', 2), ('dil_conv_5x5', 0)], [('skip_connect', 1), ('max_pool_3x3', 0)], [('sep_conv_5x5', 2), ('skip_connect', 0)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('max_pool_3x3', 1), ('sep_conv_5x5', 0)], [('sep_conv_3x3', 2), ('sep_conv_3x3', 0)], [('dil_conv_3x3', 1), ('skip_connect', 2)], [('dil_conv_5x5', 0), ('dil_conv_3x3', 4)]], normal_concat=range(2, 6), reduce=[[('dil_conv_3x3', 1), ('skip_connect', 0)], [('avg_pool_3x3', 0), ('dil_conv_5x5', 2)], [('sep_conv_5x5', 0), ('dil_conv_5x5', 2)], [('sep_conv_3x3', 4), ('dil_conv_3x3', 1)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('skip_connect', 1), ('dil_conv_5x5', 0)], [('dil_conv_3x3', 1), ('dil_conv_3x3', 0)], [('skip_connect', 1), ('sep_conv_5x5', 0)], [('sep_conv_3x3', 3), ('sep_conv_5x5', 4)]], normal_concat=range(2, 6), reduce=[[('dil_conv_5x5', 1), ('skip_connect', 0)], [('avg_pool_3x3', 0), ('max_pool_3x3', 2)], [('dil_conv_3x3', 0), ('skip_connect', 3)], [('max_pool_3x3', 4), ('max_pool_3x3', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('max_pool_3x3', 1), ('dil_conv_5x5', 0)], [('avg_pool_3x3', 1), ('avg_pool_3x3', 2)], [('max_pool_3x3', 3), ('sep_conv_3x3', 1)], [('sep_conv_3x3', 2), ('sep_conv_5x5', 3)]], normal_concat=range(2, 6), reduce=[[('dil_conv_3x3', 0), ('dil_conv_5x5', 1)], [('dil_conv_3x3', 2), ('dil_conv_5x5', 1)], [('sep_conv_3x3', 3), ('sep_conv_5x5', 0)], [('max_pool_3x3', 1), ('max_pool_3x3', 0)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('skip_connect', 0), ('dil_conv_5x5', 1)], [('skip_connect', 0), ('max_pool_3x3', 1)], [('dil_conv_5x5', 0), ('avg_pool_3x3', 3)], [('sep_conv_3x3', 0), ('dil_conv_3x3', 1)]], normal_concat=range(2, 6), reduce=[[('avg_pool_3x3', 0), ('sep_conv_5x5', 1)], [('sep_conv_3x3', 1), ('sep_conv_3x3', 2)], [('dil_conv_3x3', 2), ('sep_conv_5x5', 0)], [('skip_connect', 1), ('avg_pool_3x3', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('max_pool_3x3', 1), ('dil_conv_3x3', 0)], [('dil_conv_3x3', 0), ('avg_pool_3x3', 2)], [('sep_conv_5x5', 0), ('sep_conv_5x5', 2)], [('sep_conv_5x5', 4), ('dil_conv_3x3', 2)]], normal_concat=range(2, 6), reduce=[[('sep_conv_5x5', 1), ('dil_conv_3x3', 0)], [('skip_connect', 1), ('dil_conv_3x3', 2)], [('sep_conv_5x5', 1), ('dil_conv_5x5', 3)], [('dil_conv_5x5', 0), ('avg_pool_3x3', 2)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_3x3', 0), ('max_pool_3x3', 1)], [('dil_conv_5x5', 2), ('dil_conv_3x3', 0)], [('sep_conv_3x3', 0), ('max_pool_3x3', 2)], [('sep_conv_3x3', 4), ('skip_connect', 2)]], normal_concat=range(2, 6), reduce=[[('dil_conv_5x5', 0), ('dil_conv_3x3', 1)], [('skip_connect', 2), ('avg_pool_3x3', 0)], [('dil_conv_5x5', 2), ('max_pool_3x3', 0)], [('max_pool_3x3', 0), ('skip_connect', 2)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_5x5', 1), ('sep_conv_5x5', 0)], [('avg_pool_3x3', 2), ('max_pool_3x3', 1)], [('avg_pool_3x3', 3), ('sep_conv_3x3', 2)], [('max_pool_3x3', 3), ('sep_conv_3x3', 1)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 1), ('dil_conv_3x3', 0)], [('dil_conv_3x3', 1), ('dil_conv_5x5', 2)], [('sep_conv_3x3', 0), ('skip_connect', 1)], [('dil_conv_3x3', 4), ('avg_pool_3x3', 1)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('max_pool_3x3', 1), ('avg_pool_3x3', 0)], [('sep_conv_5x5', 0), ('max_pool_3x3', 1)], [('dil_conv_3x3', 2), ('dil_conv_3x3', 3)], [('dil_conv_3x3', 3), ('sep_conv_5x5', 2)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 0), ('sep_conv_3x3', 1)], [('skip_connect', 0), ('skip_connect', 1)], [('dil_conv_5x5', 2), ('dil_conv_5x5', 1)], [('skip_connect', 1), ('sep_conv_5x5', 0)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('sep_conv_5x5', 1), ('max_pool_3x3', 0)], [('skip_connect', 1), ('max_pool_3x3', 0)], [('sep_conv_3x3', 1), ('dil_conv_5x5', 2)], [('avg_pool_3x3', 3), ('dil_conv_5x5', 1)]], normal_concat=range(2, 6), reduce=[[('dil_conv_3x3', 1), ('dil_conv_5x5', 0)], [('dil_conv_5x5', 0), ('sep_conv_3x3', 2)], [('max_pool_3x3', 2), ('max_pool_3x3', 3)], [('avg_pool_3x3', 1), ('sep_conv_5x5', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('sep_conv_5x5', 1), ('dil_conv_3x3', 0)], [('sep_conv_5x5', 0), ('avg_pool_3x3', 2)], [('skip_connect', 1), ('sep_conv_3x3', 2)], [('sep_conv_3x3', 0), ('dil_conv_3x3', 4)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 0), ('dil_conv_3x3', 1)], [('sep_conv_3x3', 0), ('sep_conv_3x3', 1)], [('sep_conv_3x3', 0), ('max_pool_3x3', 1)], [('skip_connect', 0), ('skip_connect', 2)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('max_pool_3x3', 1), ('dil_conv_3x3', 0)], [('skip_connect', 0), ('dil_conv_5x5', 1)], [('sep_conv_5x5', 3), ('dil_conv_3x3', 0)], [('avg_pool_3x3', 1), ('skip_connect', 2)]], normal_concat=range(2, 6), reduce=[[('avg_pool_3x3', 1), ('sep_conv_3x3', 0)], [('max_pool_3x3', 1), ('max_pool_3x3', 0)], [('dil_conv_5x5', 0), ('sep_conv_3x3', 2)], [('skip_connect', 1), ('max_pool_3x3', 0)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('avg_pool_3x3', 1), ('sep_conv_3x3', 0)], [('skip_connect', 0), ('dil_conv_3x3', 1)], [('sep_conv_3x3', 1), ('skip_connect', 2)], [('dil_conv_5x5', 2), ('skip_connect', 1)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 0), ('dil_conv_5x5', 1)], [('dil_conv_3x3', 2), ('avg_pool_3x3', 1)], [('dil_conv_5x5', 2), ('avg_pool_3x3', 1)], [('avg_pool_3x3', 4), ('avg_pool_3x3', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('avg_pool_3x3', 0), ('sep_conv_3x3', 1)], [('dil_conv_3x3', 2), ('max_pool_3x3', 1)], [('avg_pool_3x3', 0), ('dil_conv_3x3', 2)], [('avg_pool_3x3', 1), ('dil_conv_5x5', 3)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 0), ('sep_conv_3x3', 1)], [('dil_conv_5x5', 1), ('sep_conv_5x5', 2)], [('avg_pool_3x3', 1), ('skip_connect', 3)], [('dil_conv_3x3', 2), ('avg_pool_3x3', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('avg_pool_3x3', 0), ('max_pool_3x3', 1)], [('dil_conv_5x5', 2), ('dil_conv_5x5', 1)], [('max_pool_3x3', 0), ('skip_connect', 2)], [('dil_conv_3x3', 2), ('sep_conv_3x3', 4)]], normal_concat=range(2, 6), reduce=[[('sep_conv_3x3', 0), ('skip_connect', 1)], [('avg_pool_3x3', 2), ('sep_conv_5x5', 0)], [('skip_connect', 0), ('sep_conv_5x5', 3)], [('dil_conv_3x3', 1), ('sep_conv_3x3', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('avg_pool_3x3', 1), ('sep_conv_5x5', 0)], [('dil_conv_5x5', 0), ('sep_conv_3x3', 1)], [('sep_conv_3x3', 1), ('dil_conv_5x5', 2)], [('skip_connect', 3), ('sep_conv_5x5', 4)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 1), ('dil_conv_5x5', 0)], [('sep_conv_5x5', 0), ('avg_pool_3x3', 1)], [('sep_conv_3x3', 3), ('dil_conv_5x5', 1)], [('dil_conv_3x3', 2), ('dil_conv_3x3', 1)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_5x5', 0), ('sep_conv_5x5', 1)], [('dil_conv_5x5', 0), ('max_pool_3x3', 1)], [('max_pool_3x3', 1), ('avg_pool_3x3', 2)], [('sep_conv_5x5', 4), ('dil_conv_3x3', 0)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 0), ('avg_pool_3x3', 1)], [('dil_conv_3x3', 0), ('max_pool_3x3', 2)], [('avg_pool_3x3', 0), ('dil_conv_5x5', 3)], [('skip_connect', 2), ('dil_conv_5x5', 1)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('sep_conv_3x3', 1), ('sep_conv_5x5', 0)], [('sep_conv_5x5', 1), ('dil_conv_3x3', 0)], [('dil_conv_3x3', 2), ('skip_connect', 1)], [('avg_pool_3x3', 2), ('dil_conv_3x3', 1)]], normal_concat=range(2, 6), reduce=[[('dil_conv_5x5', 1), ('max_pool_3x3', 0)], [('sep_conv_5x5', 2), ('dil_conv_5x5', 0)], [('avg_pool_3x3', 1), ('dil_conv_3x3', 2)], [('dil_conv_5x5', 4), ('skip_connect', 0)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_5x5', 0), ('sep_conv_3x3', 1)], [('dil_conv_5x5', 2), ('sep_conv_5x5', 1)], [('sep_conv_5x5', 3), ('dil_conv_5x5', 2)], [('skip_connect', 4), ('sep_conv_3x3', 1)]], normal_concat=range(2, 6), reduce=[[('dil_conv_5x5', 1), ('dil_conv_5x5', 0)], [('max_pool_3x3', 2), ('max_pool_3x3', 0)], [('max_pool_3x3', 1), ('skip_connect', 2)], [('max_pool_3x3', 4), ('sep_conv_3x3', 0)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('skip_connect', 0), ('dil_conv_5x5', 1)], [('max_pool_3x3', 1), ('dil_conv_5x5', 0)], [('sep_conv_5x5', 0), ('dil_conv_5x5', 3)], [('avg_pool_3x3', 2), ('max_pool_3x3', 3)]], normal_concat=range(2, 6), reduce=[[('sep_conv_3x3', 1), ('sep_conv_5x5', 0)], [('sep_conv_3x3', 2), ('dil_conv_3x3', 0)], [('avg_pool_3x3', 2), ('max_pool_3x3', 1)], [('max_pool_3x3', 2), ('dil_conv_5x5', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('skip_connect', 1), ('avg_pool_3x3', 0)], [('sep_conv_3x3', 1), ('max_pool_3x3', 0)], [('dil_conv_3x3', 0), ('dil_conv_5x5', 3)], [('max_pool_3x3', 3), ('sep_conv_5x5', 0)]], normal_concat=range(2, 6), reduce=[[('dil_conv_5x5', 0), ('dil_conv_5x5', 1)], [('dil_conv_3x3', 0), ('skip_connect', 1)], [('max_pool_3x3', 3), ('skip_connect', 1)], [('skip_connect', 2), ('avg_pool_3x3', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('skip_connect', 0), ('skip_connect', 1)], [('sep_conv_3x3', 2), ('skip_connect', 0)], [('avg_pool_3x3', 0), ('dil_conv_5x5', 3)], [('dil_conv_3x3', 3), ('sep_conv_3x3', 4)]], normal_concat=range(2, 6), reduce=[[('avg_pool_3x3', 0), ('sep_conv_5x5', 1)], [('skip_connect', 2), ('dil_conv_3x3', 0)], [('sep_conv_5x5', 3), ('sep_conv_5x5', 0)], [('dil_conv_5x5', 4), ('sep_conv_5x5', 2)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('avg_pool_3x3', 0), ('sep_conv_5x5', 1)], [('avg_pool_3x3', 2), ('dil_conv_3x3', 0)], [('dil_conv_3x3', 1), ('dil_conv_3x3', 3)], [('dil_conv_5x5', 3), ('dil_conv_5x5', 4)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 1), ('dil_conv_3x3', 0)], [('dil_conv_5x5', 2), ('sep_conv_3x3', 1)], [('dil_conv_3x3', 1), ('skip_connect', 2)], [('sep_conv_5x5', 3), ('dil_conv_5x5', 2)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_5x5', 1), ('skip_connect', 0)], [('dil_conv_3x3', 0), ('max_pool_3x3', 2)], [('avg_pool_3x3', 1), ('avg_pool_3x3', 0)], [('dil_conv_5x5', 3), ('sep_conv_3x3', 4)]], normal_concat=range(2, 6), reduce=[[('avg_pool_3x3', 1), ('sep_conv_3x3', 0)], [('max_pool_3x3', 2), ('dil_conv_3x3', 0)], [('skip_connect', 0), ('avg_pool_3x3', 3)], [('sep_conv_5x5', 0), ('avg_pool_3x3', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('max_pool_3x3', 0), ('max_pool_3x3', 1)], [('dil_conv_3x3', 0), ('dil_conv_3x3', 2)], [('max_pool_3x3', 1), ('sep_conv_3x3', 2)], [('max_pool_3x3', 4), ('dil_conv_5x5', 0)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 1), ('sep_conv_3x3', 0)], [('dil_conv_3x3', 1), ('max_pool_3x3', 2)], [('dil_conv_3x3', 1), ('max_pool_3x3', 3)], [('dil_conv_5x5', 1), ('sep_conv_3x3', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_3x3', 1), ('sep_conv_3x3', 0)], [('skip_connect', 2), ('avg_pool_3x3', 0)], [('avg_pool_3x3', 3), ('skip_connect', 1)], [('sep_conv_3x3', 4), ('avg_pool_3x3', 0)]], normal_concat=range(2, 6), reduce=[[('sep_conv_3x3', 0), ('skip_connect', 1)], [('sep_conv_3x3', 0), ('sep_conv_3x3', 2)], [('avg_pool_3x3', 2), ('max_pool_3x3', 3)], [('skip_connect', 2), ('skip_connect', 0)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('sep_conv_3x3', 1), ('dil_conv_3x3', 0)], [('sep_conv_3x3', 1), ('avg_pool_3x3', 0)], [('skip_connect', 0), ('max_pool_3x3', 3)], [('dil_conv_5x5', 4), ('dil_conv_5x5', 1)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 1), ('max_pool_3x3', 0)], [('avg_pool_3x3', 1), ('skip_connect', 0)], [('skip_connect', 2), ('dil_conv_5x5', 1)], [('avg_pool_3x3', 4), ('dil_conv_5x5', 0)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_3x3', 1), ('sep_conv_5x5', 0)], [('dil_conv_3x3', 1), ('skip_connect', 2)], [('dil_conv_5x5', 0), ('dil_conv_3x3', 2)], [('skip_connect', 1), ('sep_conv_5x5', 3)]], normal_concat=range(2, 6), reduce=[[('dil_conv_5x5', 0), ('sep_conv_5x5', 1)], [('avg_pool_3x3', 0), ('sep_conv_3x3', 1)], [('avg_pool_3x3', 2), ('dil_conv_5x5', 0)], [('avg_pool_3x3', 2), ('skip_connect', 1)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_5x5', 1), ('sep_conv_3x3', 0)], [('dil_conv_3x3', 1), ('avg_pool_3x3', 2)], [('dil_conv_3x3', 0), ('sep_conv_5x5', 3)], [('dil_conv_5x5', 4), ('avg_pool_3x3', 2)]], normal_concat=range(2, 6), reduce=[[('dil_conv_5x5', 1), ('dil_conv_5x5', 0)], [('max_pool_3x3', 0), ('skip_connect', 1)], [('skip_connect', 2), ('skip_connect', 3)], [('avg_pool_3x3', 2), ('skip_connect', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('avg_pool_3x3', 1), ('sep_conv_5x5', 0)], [('avg_pool_3x3', 0), ('max_pool_3x3', 2)], [('max_pool_3x3', 0), ('max_pool_3x3', 2)], [('sep_conv_3x3', 1), ('avg_pool_3x3', 2)]], normal_concat=range(2, 6), reduce=[[('sep_conv_5x5', 0), ('sep_conv_5x5', 1)], [('max_pool_3x3', 2), ('skip_connect', 1)], [('dil_conv_3x3', 2), ('dil_conv_5x5', 0)], [('skip_connect', 4), ('dil_conv_5x5', 0)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('skip_connect', 1), ('dil_conv_3x3', 0)], [('dil_conv_3x3', 2), ('avg_pool_3x3', 1)], [('sep_conv_3x3', 0), ('dil_conv_5x5', 2)], [('sep_conv_3x3', 2), ('sep_conv_5x5', 1)]], normal_concat=range(2, 6), reduce=[[('dil_conv_5x5', 0), ('max_pool_3x3', 1)], [('skip_connect', 0), ('sep_conv_5x5', 2)], [('dil_conv_5x5', 0), ('avg_pool_3x3', 3)], [('dil_conv_3x3', 4), ('skip_connect', 2)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('max_pool_3x3', 0), ('skip_connect', 1)], [('skip_connect', 2), ('sep_conv_5x5', 0)], [('dil_conv_3x3', 2), ('dil_conv_3x3', 1)], [('sep_conv_3x3', 1), ('dil_conv_5x5', 3)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 0), ('avg_pool_3x3', 1)], [('skip_connect', 0), ('sep_conv_3x3', 2)], [('skip_connect', 2), ('sep_conv_5x5', 3)], [('dil_conv_3x3', 4), ('dil_conv_5x5', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('skip_connect', 0), ('skip_connect', 1)], [('skip_connect', 1), ('avg_pool_3x3', 0)], [('max_pool_3x3', 1), ('sep_conv_3x3', 3)], [('max_pool_3x3', 4), ('dil_conv_3x3', 0)]], normal_concat=range(2, 6), reduce=[[('sep_conv_5x5', 1), ('skip_connect', 0)], [('skip_connect', 0), ('max_pool_3x3', 1)], [('skip_connect', 3), ('max_pool_3x3', 1)], [('skip_connect', 3), ('dil_conv_5x5', 1)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('max_pool_3x3', 0), ('dil_conv_3x3', 1)], [('dil_conv_5x5', 2), ('avg_pool_3x3', 0)], [('dil_conv_3x3', 2), ('dil_conv_5x5', 1)], [('sep_conv_5x5', 1), ('max_pool_3x3', 0)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 0), ('dil_conv_5x5', 1)], [('skip_connect', 2), ('max_pool_3x3', 0)], [('skip_connect', 3), ('max_pool_3x3', 2)], [('sep_conv_5x5', 3), ('avg_pool_3x3', 2)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('avg_pool_3x3', 1), ('max_pool_3x3', 0)], [('avg_pool_3x3', 0), ('sep_conv_5x5', 2)], [('dil_conv_3x3', 1), ('dil_conv_5x5', 2)], [('dil_conv_5x5', 0), ('skip_connect', 3)]], normal_concat=range(2, 6), reduce=[[('dil_conv_5x5', 1), ('max_pool_3x3', 0)], [('skip_connect', 2), ('sep_conv_3x3', 0)], [('avg_pool_3x3', 3), ('avg_pool_3x3', 0)], [('avg_pool_3x3', 3), ('avg_pool_3x3', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_3x3', 1), ('dil_conv_3x3', 0)], [('dil_conv_3x3', 2), ('sep_conv_3x3', 1)], [('skip_connect', 1), ('dil_conv_3x3', 3)], [('avg_pool_3x3', 2), ('avg_pool_3x3', 0)]], normal_concat=range(2, 6), reduce=[[('avg_pool_3x3', 1), ('sep_conv_5x5', 0)], [('sep_conv_3x3', 2), ('dil_conv_5x5', 1)], [('skip_connect', 1), ('skip_connect', 3)], [('max_pool_3x3', 0), ('avg_pool_3x3', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('skip_connect', 0), ('dil_conv_5x5', 1)], [('sep_conv_5x5', 0), ('avg_pool_3x3', 1)], [('sep_conv_3x3', 1), ('dil_conv_5x5', 0)], [('skip_connect', 0), ('sep_conv_3x3', 3)]], normal_concat=range(2, 6), reduce=[[('max_pool_3x3', 0), ('dil_conv_3x3', 1)], [('dil_conv_3x3', 2), ('skip_connect', 0)], [('dil_conv_3x3', 0), ('sep_conv_5x5', 1)], [('dil_conv_3x3', 2), ('max_pool_3x3', 0)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('avg_pool_3x3', 0), ('dil_conv_3x3', 1)], [('dil_conv_5x5', 1), ('max_pool_3x3', 2)], [('sep_conv_3x3', 0), ('max_pool_3x3', 3)], [('max_pool_3x3', 1), ('sep_conv_3x3', 0)]], normal_concat=range(2, 6), reduce=[[('sep_conv_3x3', 1), ('max_pool_3x3', 0)], [('dil_conv_5x5', 0), ('dil_conv_3x3', 2)], [('dil_conv_5x5', 0), ('skip_connect', 1)], [('sep_conv_3x3', 0), ('sep_conv_5x5', 2)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('avg_pool_3x3', 0), ('sep_conv_5x5', 1)], [('sep_conv_3x3', 0), ('dil_conv_5x5', 2)], [('sep_conv_5x5', 2), ('sep_conv_5x5', 3)], [('avg_pool_3x3', 3), ('avg_pool_3x3', 2)]], normal_concat=range(2, 6), reduce=[[('avg_pool_3x3', 0), ('dil_conv_3x3', 1)], [('max_pool_3x3', 1), ('max_pool_3x3', 2)], [('sep_conv_3x3', 2), ('skip_connect', 3)], [('dil_conv_3x3', 3), ('dil_conv_5x5', 1)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('dil_conv_5x5', 0), ('dil_conv_5x5', 1)], [('max_pool_3x3', 2), ('max_pool_3x3', 0)], [('dil_conv_3x3', 0), ('avg_pool_3x3', 1)], [('skip_connect', 4), ('skip_connect', 0)]], normal_concat=range(2, 6), reduce=[[('dil_conv_3x3', 1), ('avg_pool_3x3', 0)], [('sep_conv_5x5', 2), ('sep_conv_3x3', 0)], [('max_pool_3x3', 3), ('sep_conv_3x3', 1)], [('sep_conv_5x5', 1), ('dil_conv_5x5', 3)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Genotype(normal=[[('avg_pool_3x3', 0), ('sep_conv_3x3', 1)], [('skip_connect', 1), ('sep_conv_5x5', 0)], [('sep_conv_5x5', 2), ('sep_conv_5x5', 1)], [('sep_conv_5x5', 2), ('dil_conv_5x5', 4)]], normal_concat=range(2, 6), reduce=[[('skip_connect', 0), ('avg_pool_3x3', 1)], [('max_pool_3x3', 0), ('avg_pool_3x3', 1)], [('max_pool_3x3', 3), ('skip_connect', 1)], [('avg_pool_3x3', 1), ('sep_conv_5x5', 4)]], reduce_concat=range(2, 6))</t>
+  </si>
+  <si>
+    <t>Arch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Genotype</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arch_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arch_2</t>
+  </si>
+  <si>
+    <t>Arch_3</t>
+  </si>
+  <si>
+    <t>Arch_4</t>
+  </si>
+  <si>
+    <t>Arch_5</t>
+  </si>
+  <si>
+    <t>Arch_6</t>
+  </si>
+  <si>
+    <t>Arch_7</t>
+  </si>
+  <si>
+    <t>Arch_8</t>
+  </si>
+  <si>
+    <t>Arch_9</t>
+  </si>
+  <si>
+    <t>Arch_10</t>
+  </si>
+  <si>
+    <t>Arch_11</t>
+  </si>
+  <si>
+    <t>Arch_12</t>
+  </si>
+  <si>
+    <t>Arch_13</t>
+  </si>
+  <si>
+    <t>Arch_14</t>
+  </si>
+  <si>
+    <t>Arch_15</t>
+  </si>
+  <si>
+    <t>Arch_16</t>
+  </si>
+  <si>
+    <t>Arch_17</t>
+  </si>
+  <si>
+    <t>Arch_18</t>
+  </si>
+  <si>
+    <t>Arch_19</t>
+  </si>
+  <si>
+    <t>Arch_20</t>
+  </si>
+  <si>
+    <t>Arch_21</t>
+  </si>
+  <si>
+    <t>Arch_22</t>
+  </si>
+  <si>
+    <t>Arch_23</t>
+  </si>
+  <si>
+    <t>Arch_24</t>
+  </si>
+  <si>
+    <t>Arch_25</t>
+  </si>
+  <si>
+    <t>Arch_26</t>
+  </si>
+  <si>
+    <t>Arch_27</t>
+  </si>
+  <si>
+    <t>Arch_28</t>
+  </si>
+  <si>
+    <t>Arch_29</t>
+  </si>
+  <si>
+    <t>Arch_30</t>
+  </si>
+  <si>
+    <t>Arch_31</t>
+  </si>
+  <si>
+    <t>Arch_32</t>
+  </si>
+  <si>
+    <t>Arch_33</t>
+  </si>
+  <si>
+    <t>Arch_34</t>
+  </si>
+  <si>
+    <t>Arch_35</t>
+  </si>
+  <si>
+    <t>Arch_36</t>
+  </si>
+  <si>
+    <t>Arch_37</t>
+  </si>
+  <si>
+    <t>Arch_38</t>
+  </si>
+  <si>
+    <t>Arch_39</t>
+  </si>
+  <si>
+    <t>Arch_40</t>
+  </si>
+  <si>
+    <t>Arch_41</t>
+  </si>
+  <si>
+    <t>Arch_42</t>
+  </si>
+  <si>
+    <t>Arch_43</t>
+  </si>
+  <si>
+    <t>Arch_44</t>
+  </si>
+  <si>
+    <t>Arch_45</t>
+  </si>
+  <si>
+    <t>Arch_46</t>
+  </si>
+  <si>
+    <t>Arch_47</t>
+  </si>
+  <si>
+    <t>Arch_48</t>
+  </si>
+  <si>
+    <t>Arch_49</t>
+  </si>
+  <si>
+    <t>Arch_50</t>
+  </si>
+  <si>
+    <t>Arch_51</t>
+  </si>
+  <si>
+    <t>Arch_52</t>
+  </si>
+  <si>
+    <t>Arch_53</t>
+  </si>
+  <si>
+    <t>Arch_54</t>
+  </si>
+  <si>
+    <t>Arch_55</t>
+  </si>
+  <si>
+    <t>Arch_56</t>
+  </si>
+  <si>
+    <t>Arch_57</t>
+  </si>
+  <si>
+    <t>Arch_58</t>
+  </si>
+  <si>
+    <t>Arch_59</t>
+  </si>
+  <si>
+    <t>Arch_60</t>
+  </si>
+  <si>
+    <t>Arch_61</t>
+  </si>
+  <si>
+    <t>Arch_62</t>
+  </si>
+  <si>
+    <t>Arch_63</t>
+  </si>
+  <si>
+    <t>Arch_64</t>
+  </si>
+  <si>
+    <t>Arch_65</t>
+  </si>
+  <si>
+    <t>Arch_66</t>
+  </si>
+  <si>
+    <t>Arch_67</t>
+  </si>
+  <si>
+    <t>Arch_68</t>
+  </si>
+  <si>
+    <t>Arch_69</t>
+  </si>
+  <si>
+    <t>Arch_70</t>
+  </si>
+  <si>
+    <t>Arch_71</t>
+  </si>
+  <si>
+    <t>Arch_72</t>
+  </si>
+  <si>
+    <t>Arch_73</t>
+  </si>
+  <si>
+    <t>Arch_74</t>
+  </si>
+  <si>
+    <t>Arch_75</t>
+  </si>
+  <si>
+    <t>Arch_76</t>
+  </si>
+  <si>
+    <t>Arch_77</t>
+  </si>
+  <si>
+    <t>Arch_78</t>
+  </si>
+  <si>
+    <t>Arch_79</t>
+  </si>
+  <si>
+    <t>Arch_80</t>
+  </si>
+  <si>
+    <t>Arch_81</t>
+  </si>
+  <si>
+    <t>Arch_82</t>
+  </si>
+  <si>
+    <t>Arch_83</t>
+  </si>
+  <si>
+    <t>Arch_84</t>
+  </si>
+  <si>
+    <t>Arch_85</t>
+  </si>
+  <si>
+    <t>Arch_86</t>
+  </si>
+  <si>
+    <t>Arch_87</t>
+  </si>
+  <si>
+    <t>Arch_88</t>
+  </si>
+  <si>
+    <t>Arch_89</t>
+  </si>
+  <si>
+    <t>Arch_90</t>
+  </si>
+  <si>
+    <t>Arch_91</t>
+  </si>
+  <si>
+    <t>Arch_92</t>
+  </si>
+  <si>
+    <t>Arch_93</t>
+  </si>
+  <si>
+    <t>Arch_94</t>
+  </si>
+  <si>
+    <t>Arch_95</t>
+  </si>
+  <si>
+    <t>Arch_96</t>
+  </si>
+  <si>
+    <t>Arch_97</t>
+  </si>
+  <si>
+    <t>Arch_98</t>
+  </si>
+  <si>
+    <t>Arch_99</t>
+  </si>
+  <si>
+    <t>Arch_100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -549,7 +1164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -582,6 +1197,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,11 +1520,1144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FF3FED-E809-45DB-9D0E-7BFDED3C31D6}">
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="11"/>
+    <col min="2" max="2" width="45.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="13">
+        <v>96.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="13">
+        <v>97.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="13">
+        <v>96.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="13">
+        <v>97.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="13">
+        <v>96.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="13">
+        <v>96.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="13">
+        <v>97.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="13">
+        <v>97.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="13">
+        <v>97.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="13">
+        <v>96.92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="13">
+        <v>96.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="13">
+        <v>97.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="13">
+        <v>96.62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="13">
+        <v>97.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="13">
+        <v>97.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="13">
+        <v>97.15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="13">
+        <v>97.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="13">
+        <v>97.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="13">
+        <v>97.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="13">
+        <v>97.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="13">
+        <v>97.34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="13">
+        <v>97.19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="13">
+        <v>96.51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="13">
+        <v>96.85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="13">
+        <v>96.56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="13">
+        <v>96.89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="13">
+        <v>97.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="13">
+        <v>97.15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" s="13">
+        <v>97.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="13">
+        <v>96.87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="13">
+        <v>96.59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="13">
+        <v>96.93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="13">
+        <v>97.24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="13">
+        <v>97.19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="13">
+        <v>97.14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="13">
+        <v>96.55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="13">
+        <v>97.04</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="13">
+        <v>97.08</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B41" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="13">
+        <v>96.95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="13">
+        <v>97.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="13">
+        <v>96.97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B44" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" s="13">
+        <v>97.16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" s="13">
+        <v>96.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B46" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="13">
+        <v>96.78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B47" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" s="13">
+        <v>96.94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" s="13">
+        <v>97.12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" s="13">
+        <v>97.13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B50" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="13">
+        <v>97.05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B51" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" s="13">
+        <v>97.04</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B52" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="13">
+        <v>96.55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B53" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" s="13">
+        <v>96.92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B54" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" s="13">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B55" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="13">
+        <v>97.08</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B56" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="13">
+        <v>97.28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B57" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" s="13">
+        <v>96.94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B58" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="13">
+        <v>97.08</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B59" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59" s="13">
+        <v>97.11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B60" t="s">
+        <v>202</v>
+      </c>
+      <c r="C60" s="13">
+        <v>97.35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B61" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" s="13">
+        <v>97.15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B62" t="s">
+        <v>204</v>
+      </c>
+      <c r="C62" s="13">
+        <v>97.07</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B63" t="s">
+        <v>205</v>
+      </c>
+      <c r="C63" s="13">
+        <v>96.93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B64" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" s="13">
+        <v>96.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B65" t="s">
+        <v>207</v>
+      </c>
+      <c r="C65" s="13">
+        <v>97.02</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B66" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" s="13">
+        <v>96.85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B67" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67" s="13">
+        <v>96.79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B68" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" s="13">
+        <v>96.18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B69" t="s">
+        <v>211</v>
+      </c>
+      <c r="C69" s="13">
+        <v>96.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B70" t="s">
+        <v>212</v>
+      </c>
+      <c r="C70" s="13">
+        <v>97.02</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B71" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" s="13">
+        <v>97.45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B72" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="13">
+        <v>97.08</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B73" t="s">
+        <v>215</v>
+      </c>
+      <c r="C73" s="13">
+        <v>97.41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B74" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" s="13">
+        <v>96.96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B75" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75" s="13">
+        <v>96.52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B76" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76" s="13">
+        <v>96.87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B77" t="s">
+        <v>219</v>
+      </c>
+      <c r="C77" s="13">
+        <v>96.47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B78" t="s">
+        <v>220</v>
+      </c>
+      <c r="C78" s="13">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B79" t="s">
+        <v>221</v>
+      </c>
+      <c r="C79" s="13">
+        <v>96.31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B80" t="s">
+        <v>222</v>
+      </c>
+      <c r="C80" s="13">
+        <v>96.99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B81" t="s">
+        <v>223</v>
+      </c>
+      <c r="C81" s="13">
+        <v>97.13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B82" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" s="13">
+        <v>97.16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B83" t="s">
+        <v>225</v>
+      </c>
+      <c r="C83" s="13">
+        <v>97.08</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B84" t="s">
+        <v>226</v>
+      </c>
+      <c r="C84" s="13">
+        <v>97.07</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B85" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85" s="13">
+        <v>96.62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B86" t="s">
+        <v>228</v>
+      </c>
+      <c r="C86" s="13">
+        <v>97.18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B87" t="s">
+        <v>229</v>
+      </c>
+      <c r="C87" s="13">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="B88" t="s">
+        <v>230</v>
+      </c>
+      <c r="C88" s="13">
+        <v>97.11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B89" t="s">
+        <v>231</v>
+      </c>
+      <c r="C89" s="13">
+        <v>96.81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B90" t="s">
+        <v>232</v>
+      </c>
+      <c r="C90" s="13">
+        <v>96.9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B91" t="s">
+        <v>233</v>
+      </c>
+      <c r="C91" s="13">
+        <v>97.21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B92" t="s">
+        <v>234</v>
+      </c>
+      <c r="C92" s="13">
+        <v>96.94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B93" t="s">
+        <v>235</v>
+      </c>
+      <c r="C93" s="13">
+        <v>96.96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B94" t="s">
+        <v>236</v>
+      </c>
+      <c r="C94" s="13">
+        <v>96.81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B95" t="s">
+        <v>237</v>
+      </c>
+      <c r="C95" s="13">
+        <v>96.93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C96" s="13">
+        <v>97.36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="B97" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97" s="13">
+        <v>97.01</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="B98" t="s">
+        <v>240</v>
+      </c>
+      <c r="C98" s="13">
+        <v>97.12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B99" t="s">
+        <v>241</v>
+      </c>
+      <c r="C99" s="13">
+        <v>97.05</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="B100" t="s">
+        <v>242</v>
+      </c>
+      <c r="C100" s="13">
+        <v>96.85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B101" t="s">
+        <v>243</v>
+      </c>
+      <c r="C101" s="13">
+        <v>97.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329E3896-B9D1-4EEB-9BCD-05B719358FD9}">
   <dimension ref="A1:AG115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11990,131 +13747,131 @@
         <v>8</v>
       </c>
       <c r="B112" s="6">
-        <f>AVERAGE(B11:B110)</f>
+        <f t="shared" ref="B112:AG112" si="0">AVERAGE(B11:B110)</f>
         <v>65.696200000000019</v>
       </c>
       <c r="C112" s="6">
-        <f>AVERAGE(C11:C110)</f>
+        <f t="shared" si="0"/>
         <v>79.562000000000012</v>
       </c>
       <c r="D112" s="6">
-        <f>AVERAGE(D11:D110)</f>
+        <f t="shared" si="0"/>
         <v>88.372200000000007</v>
       </c>
       <c r="E112" s="6">
-        <f>AVERAGE(E11:E110)</f>
+        <f t="shared" si="0"/>
         <v>79.190099999999987</v>
       </c>
       <c r="F112" s="6">
-        <f>AVERAGE(F11:F110)</f>
+        <f t="shared" si="0"/>
         <v>65.740499999999997</v>
       </c>
       <c r="G112" s="6">
-        <f>AVERAGE(G11:G110)</f>
+        <f t="shared" si="0"/>
         <v>77.280300000000011</v>
       </c>
       <c r="H112" s="6">
-        <f>AVERAGE(H11:H110)</f>
+        <f t="shared" si="0"/>
         <v>55.56</v>
       </c>
       <c r="I112" s="6">
-        <f>AVERAGE(I11:I110)</f>
+        <f t="shared" si="0"/>
         <v>76.146100000000018</v>
       </c>
       <c r="J112" s="6">
-        <f>AVERAGE(J11:J110)</f>
+        <f t="shared" si="0"/>
         <v>65.308799999999991</v>
       </c>
       <c r="K112" s="6">
-        <f>AVERAGE(K11:K110)</f>
+        <f t="shared" si="0"/>
         <v>63.674599999999984</v>
       </c>
       <c r="L112" s="6">
-        <f>AVERAGE(L11:L110)</f>
+        <f t="shared" si="0"/>
         <v>58.975299999999997</v>
       </c>
       <c r="M112" s="6">
-        <f>AVERAGE(M11:M110)</f>
+        <f t="shared" si="0"/>
         <v>89.211899999999972</v>
       </c>
       <c r="N112" s="6">
-        <f>AVERAGE(N11:N110)</f>
+        <f t="shared" si="0"/>
         <v>84.389400000000009</v>
       </c>
       <c r="O112" s="6">
-        <f>AVERAGE(O11:O110)</f>
+        <f t="shared" si="0"/>
         <v>67.476000000000013</v>
       </c>
       <c r="P112" s="6">
-        <f>AVERAGE(P11:P110)</f>
+        <f t="shared" si="0"/>
         <v>66.280500000000018</v>
       </c>
       <c r="Q112" s="6">
-        <f>AVERAGE(Q11:Q110)</f>
+        <f t="shared" si="0"/>
         <v>85.877299999999977</v>
       </c>
       <c r="R112" s="6">
-        <f>AVERAGE(R11:R110)</f>
+        <f t="shared" si="0"/>
         <v>92.668999999999997</v>
       </c>
       <c r="S112" s="6">
-        <f>AVERAGE(S11:S110)</f>
+        <f t="shared" si="0"/>
         <v>85.90019999999997</v>
       </c>
       <c r="T112" s="6">
-        <f>AVERAGE(T11:T110)</f>
+        <f t="shared" si="0"/>
         <v>83.584799999999973</v>
       </c>
       <c r="U112" s="6">
-        <f>AVERAGE(U11:U110)</f>
+        <f t="shared" si="0"/>
         <v>84.784900000000022</v>
       </c>
       <c r="V112" s="6">
-        <f>AVERAGE(V11:V110)</f>
+        <f t="shared" si="0"/>
         <v>93.666799999999967</v>
       </c>
       <c r="W112" s="6">
-        <f>AVERAGE(W11:W110)</f>
+        <f t="shared" si="0"/>
         <v>95.505299999999977</v>
       </c>
       <c r="X112" s="6">
-        <f>AVERAGE(X11:X110)</f>
+        <f t="shared" si="0"/>
         <v>95.484399999999965</v>
       </c>
       <c r="Y112" s="6">
-        <f>AVERAGE(Y11:Y110)</f>
+        <f t="shared" si="0"/>
         <v>90.650899999999979</v>
       </c>
       <c r="Z112" s="6">
-        <f>AVERAGE(Z11:Z110)</f>
+        <f t="shared" si="0"/>
         <v>89.261300000000034</v>
       </c>
       <c r="AA112" s="6">
-        <f>AVERAGE(AA11:AA110)</f>
+        <f t="shared" si="0"/>
         <v>71.812200000000033</v>
       </c>
       <c r="AB112" s="6">
-        <f>AVERAGE(AB11:AB110)</f>
+        <f t="shared" si="0"/>
         <v>69.614000000000004</v>
       </c>
       <c r="AC112" s="6">
-        <f>AVERAGE(AC11:AC110)</f>
+        <f t="shared" si="0"/>
         <v>83.082200000000014</v>
       </c>
       <c r="AD112" s="6">
-        <f>AVERAGE(AD11:AD110)</f>
+        <f t="shared" si="0"/>
         <v>70.259499999999974</v>
       </c>
       <c r="AE112" s="6">
-        <f>AVERAGE(AE11:AE110)</f>
+        <f t="shared" si="0"/>
         <v>73.728099999999998</v>
       </c>
       <c r="AF112" s="6">
-        <f>AVERAGE(AF11:AF110)</f>
+        <f t="shared" si="0"/>
         <v>76.511799999999965</v>
       </c>
       <c r="AG112" s="6">
-        <f>AVERAGE(AG11:AG110)</f>
+        <f t="shared" si="0"/>
         <v>78.452999999999989</v>
       </c>
     </row>
